--- a/init_db/migrate_rbac/import_phan_quyen.xlsx
+++ b/init_db/migrate_rbac/import_phan_quyen.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code_base\init_db\migrate_rbac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275A9300-8DF2-4884-BF74-5A01285068E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFB3A22-3D53-4E0F-A576-521AF377E608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{7088067B-ED7D-40EF-B040-48C32525852C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{7088067B-ED7D-40EF-B040-48C32525852C}"/>
   </bookViews>
   <sheets>
     <sheet name="permission" sheetId="1" r:id="rId1"/>
     <sheet name="role" sheetId="2" r:id="rId2"/>
     <sheet name="group" sheetId="3" r:id="rId3"/>
+    <sheet name="user" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="68">
   <si>
     <t>key</t>
   </si>
@@ -197,6 +198,51 @@
   </si>
   <si>
     <t>quan ly user</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>cuong@gmail.com</t>
+  </si>
+  <si>
+    <t>cuong.boot.ai@gmail.com</t>
+  </si>
+  <si>
+    <t>password_hash</t>
+  </si>
+  <si>
+    <t>pbkdf2:sha256:260000$KJDJC0NqdE8l5Osl$6cb1c28d7098e996b2e85b84ca73e77f7184097e63f7b729a603a757de97df4d</t>
+  </si>
+  <si>
+    <t>nguyen ngoc cuong</t>
+  </si>
+  <si>
+    <t>roles_id</t>
+  </si>
+  <si>
+    <t>['permissionadminsuper', 'permissionadminbasic']</t>
+  </si>
+  <si>
+    <t>['permissionadminbasic']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>full_name</t>
+  </si>
+  <si>
+    <t>groups_key</t>
+  </si>
+  <si>
+    <t>roles_key</t>
+  </si>
+  <si>
+    <t>['admin_super','admin_basic']</t>
+  </si>
+  <si>
+    <t>['admin_basic']</t>
   </si>
 </sst>
 </file>
@@ -254,12 +300,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1086,7 +1135,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,19 +1209,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455A2D0E-0AD1-4C86-880C-2D6850EEEB03}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="59.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1182,8 +1232,11 @@
       <c r="C1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>47</v>
       </c>
@@ -1193,8 +1246,11 @@
       <c r="C2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>50</v>
       </c>
@@ -1204,8 +1260,96 @@
       <c r="C3" t="s">
         <v>52</v>
       </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4F51AA-6859-49F9-960F-901EA7F88B13}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="48.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/init_db/migrate_rbac/import_phan_quyen.xlsx
+++ b/init_db/migrate_rbac/import_phan_quyen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code_base\init_db\migrate_rbac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFB3A22-3D53-4E0F-A576-521AF377E608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5510A8AD-69EC-44E8-9595-61946828FB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{7088067B-ED7D-40EF-B040-48C32525852C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{7088067B-ED7D-40EF-B040-48C32525852C}"/>
   </bookViews>
   <sheets>
     <sheet name="permission" sheetId="1" r:id="rId1"/>
@@ -221,12 +221,6 @@
     <t>roles_id</t>
   </si>
   <si>
-    <t>['permissionadminsuper', 'permissionadminbasic']</t>
-  </si>
-  <si>
-    <t>['permissionadminbasic']</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
@@ -239,10 +233,16 @@
     <t>roles_key</t>
   </si>
   <si>
-    <t>['admin_super','admin_basic']</t>
-  </si>
-  <si>
-    <t>['admin_basic']</t>
+    <t>["admin_basic"]</t>
+  </si>
+  <si>
+    <t>["admin_super","admin_basic"]</t>
+  </si>
+  <si>
+    <t>["permissionadminsuper", "permissionadminbasic"]</t>
+  </si>
+  <si>
+    <t>["permissionadminbasic"]</t>
   </si>
 </sst>
 </file>
@@ -1211,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455A2D0E-0AD1-4C86-880C-2D6850EEEB03}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,7 +1247,7 @@
         <v>49</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1261,7 +1261,7 @@
         <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1274,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4F51AA-6859-49F9-960F-901EA7F88B13}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,16 +1296,16 @@
         <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
         <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1322,10 +1322,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1342,10 +1342,10 @@
         <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/init_db/migrate_rbac/import_phan_quyen.xlsx
+++ b/init_db/migrate_rbac/import_phan_quyen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code_base\init_db\migrate_rbac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5510A8AD-69EC-44E8-9595-61946828FB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6188667B-9993-40C9-AAAC-91FEBB41C2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{7088067B-ED7D-40EF-B040-48C32525852C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7088067B-ED7D-40EF-B040-48C32525852C}"/>
   </bookViews>
   <sheets>
     <sheet name="permission" sheetId="1" r:id="rId1"/>
@@ -140,9 +140,6 @@
     <t>put@/api/v1/manage/message/&lt;message_id&gt;</t>
   </si>
   <si>
-    <t>post@/api/v1/profile/send_email</t>
-  </si>
-  <si>
     <t>post@/api/v1/manage/message</t>
   </si>
   <si>
@@ -243,6 +240,9 @@
   </si>
   <si>
     <t>["permissionadminbasic"]</t>
+  </si>
+  <si>
+    <t>post@/api/v1/manage/user/send_email</t>
   </si>
 </sst>
 </file>
@@ -627,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6D9117-B94C-4019-9600-28F21DA8CE43}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,7 +899,7 @@
         <v>28</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -997,8 +997,8 @@
       <c r="B33" t="s">
         <v>28</v>
       </c>
-      <c r="C33" t="s">
-        <v>33</v>
+      <c r="C33" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1009,7 +1009,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1020,7 +1020,7 @@
         <v>28</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1031,7 +1031,7 @@
         <v>28</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1042,7 +1042,7 @@
         <v>28</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1053,7 +1053,7 @@
         <v>28</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1064,7 +1064,7 @@
         <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1097,7 +1097,7 @@
         <v>26</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1124,9 +1124,10 @@
     <hyperlink ref="C38" r:id="rId20" xr:uid="{5D1C6B7C-3249-4E13-B162-2BCA8C620858}"/>
     <hyperlink ref="C24" r:id="rId21" xr:uid="{7EAE575A-6EC6-4284-A67F-3A73ECDE7208}"/>
     <hyperlink ref="C42" r:id="rId22" xr:uid="{27503E06-F944-4D78-A07E-52012C8AC20D}"/>
+    <hyperlink ref="C33" r:id="rId23" xr:uid="{551DA997-142D-4A8E-AE5B-4C27B0DC9AFB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -1154,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
         <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1171,7 +1172,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1185,7 +1186,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1199,7 +1200,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1211,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455A2D0E-0AD1-4C86-880C-2D6850EEEB03}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,38 +1231,38 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>48</v>
       </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1290,62 +1291,62 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>62</v>
-      </c>
-      <c r="F1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
